--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcicinit/PycharmProjects/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D267D767-D4BA-AC4E-94F1-727A1EB6095A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B62ED-793E-2A45-B9F3-E11D74E19182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{3B13D699-71C0-8C4A-A124-896D7C87C64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="118">
   <si>
     <t>Spell name</t>
   </si>
@@ -332,9 +332,6 @@
     <t>If target is not protected, modify HP</t>
   </si>
   <si>
-    <t>Resolve this spell last. If target dies, it is restored to brand new situation. Else, it's like a cure light wounds.</t>
-  </si>
-  <si>
     <t>rules</t>
   </si>
   <si>
@@ -559,6 +556,207 @@
   </si>
   <si>
     <t>Apply as a one-turn personal effect with high priority. Note that this acts as a shield too and that id DOES NOT COUNTERACT FINGER OF DEATH</t>
+  </si>
+  <si>
+    <r>
+      <t>gestures C-D-P-W. This spell acts as a combination of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>counter-spell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>remove enchantment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>, but its effects are universal rather than limited to the subject of the spell. It will stop any spell cast in the same turn from working (apart from another dispel magic spell which combines with it for the same result), and will remove all enchantments from all beings before they have effect. In addition, all monsters are destroyed although they can attack that turn. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Counter-spells</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>magic mirrors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> have no effect. The spell will not work on stabs or surrenders. As with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>counter-spell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> it also acts as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>shield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> for its subject.</t>
+    </r>
+  </si>
+  <si>
+    <t>Treat this as a global status effect that disallows any spells to be cast this turn. At the end of the turn, remove all enchants and kill all monsters. NOTE: This acts as a shield, so it also protects from stab…</t>
+  </si>
+  <si>
+    <r>
+      <t>gestures D-W-W-F-W-C. The subject of this spell is usually a recently-dead (not yet decomposing) human corpse though it may be used on a dead monster. When the spell is cast, life returns to the corpse and all damage is cured. All enchantments are also removed (as per the spell) so any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>poisons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> will be neutralized and all other enchantments removed. If swords, knives, or other implements of destruction still remain in the corpse when it is raised, they will of course cause it damage as usual. The subject will be able to act normally immediately after the spell is cast. On the turn a monster is raised it may attack. Wizards may begin gesturing on the turn following their return from the dead. This is the only spell which affects corpses. It therefore cannot be stopped by a counter-spell. A dispel magic spell will prevent its effect, since dispel magic affects all spells no matter what their subject. If the spell is cast on a live individual, the effect is that of a cure light wounds recovering five points of damage, or as many as have been sustained if less than five. Note that any diseases the live subject might have are not cured.</t>
+    </r>
+  </si>
+  <si>
+    <t>Resolve this spell last. If target dies, it is restored to brand new situation. Else, it's like 5-hp a cure light wounds.</t>
+  </si>
+  <si>
+    <t>gestures D-F-W. If the subject has received damage then he is cured by one point as if that point had not been inflicted. Thus, for example, if a wizard was at ten points of damage and was hit simultaneously by a cure light wounds and a lightning bolt he would finish that turn on fourteen points rather than fifteen (or nine if there had been no lightning bolt). The effect is not removed by a dispel magic or remove enchantment.</t>
+  </si>
+  <si>
+    <t>If target is not protected, modify HP. Note that this supposedly ignores dispel magic according to the rules. I think NOT</t>
+  </si>
+  <si>
+    <r>
+      <t>gestures D-F-P-W. This spell is similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>cure light wounds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> in effect but two points of damage are cured. Note that only one point is cured if only one point of damage has been sustained and the spell has no effect if the subject is completely undamaged. This spell will also cure any diseases the subject might have at the time.</t>
+    </r>
+  </si>
+  <si>
+    <t>If target is not protected, modify HP. Then, cure all diseases</t>
   </si>
 </sst>
 </file>
@@ -712,6 +910,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0F35-8742-B930-B494B5CD89F3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -727,6 +930,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0F35-8742-B930-B494B5CD89F3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -742,6 +950,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0F35-8742-B930-B494B5CD89F3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -757,6 +970,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0F35-8742-B930-B494B5CD89F3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -772,6 +990,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0F35-8742-B930-B494B5CD89F3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1844,10 +2067,10 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,10 +2111,10 @@
         <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
         <v>88</v>
@@ -1900,7 +2123,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1916,8 +2139,14 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
       <c r="I2">
         <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
       </c>
       <c r="K2" t="s">
         <v>89</v>
@@ -1927,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1943,6 +2172,7 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="J3" s="1"/>
       <c r="K3" t="s">
         <v>95</v>
       </c>
@@ -2005,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2022,10 +2252,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
       </c>
       <c r="K6" t="s">
         <v>90</v>
@@ -2052,10 +2285,13 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2104,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2126,8 +2362,9 @@
       <c r="I10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2149,6 +2386,7 @@
       <c r="I11">
         <v>3</v>
       </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2191,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2320,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -2346,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21">
         <v>999</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2457,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2517,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2543,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2560,10 +2798,16 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I32">
+        <v>999</v>
+      </c>
+      <c r="J32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2580,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2840,9 @@
       <c r="G34" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2614,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2630,8 +2875,9 @@
       <c r="G36" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -2648,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -2665,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2682,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2716,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2733,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2750,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
